--- a/Delivery Sheet.xlsx
+++ b/Delivery Sheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/animesh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B79B68-AF72-A84E-85D4-3F185AD07014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BD3852-E8C1-934A-9604-6F994FE39DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-1340" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="$100" sheetId="1" r:id="rId1"/>
+    <sheet name="$125 " sheetId="1" r:id="rId1"/>
     <sheet name="$125" sheetId="2" r:id="rId2"/>
     <sheet name="$150" sheetId="3" r:id="rId3"/>
     <sheet name="$175" sheetId="4" r:id="rId4"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="277">
   <si>
     <t>Zipcode</t>
   </si>
@@ -855,6 +855,9 @@
   </si>
   <si>
     <t>SUMERDUCK</t>
+  </si>
+  <si>
+    <t>Hughesville</t>
   </si>
 </sst>
 </file>
@@ -7003,10 +7006,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8311,6 +8314,17 @@
         <v>159</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>20637</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>13</v>
       </c>
     </row>
